--- a/artfynd/A 41611-2025 artfynd.xlsx
+++ b/artfynd/A 41611-2025 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY69"/>
+  <dimension ref="A1:AY75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7612,6 +7612,627 @@
       </c>
       <c r="AY69" t="inlineStr"/>
     </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>131268322</v>
+      </c>
+      <c r="B70" t="n">
+        <v>83207</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>6439</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Gulnål</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Chaenotheca brachypoda</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>(Ach.) Tibell</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>Risboskogen, söder om, Upl</t>
+        </is>
+      </c>
+      <c r="Q70" t="n">
+        <v>632054</v>
+      </c>
+      <c r="R70" t="n">
+        <v>6661554</v>
+      </c>
+      <c r="S70" t="n">
+        <v>15</v>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>Skuttunge</t>
+        </is>
+      </c>
+      <c r="Y70" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="AA70" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="AD70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT70" t="inlineStr"/>
+      <c r="AW70" t="inlineStr">
+        <is>
+          <t>Vilhelm Kroon</t>
+        </is>
+      </c>
+      <c r="AX70" t="inlineStr">
+        <is>
+          <t>Vilhelm Kroon</t>
+        </is>
+      </c>
+      <c r="AY70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>131268316</v>
+      </c>
+      <c r="B71" t="n">
+        <v>57881</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr"/>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>Risboskogen, söder om, Upl</t>
+        </is>
+      </c>
+      <c r="Q71" t="n">
+        <v>632039</v>
+      </c>
+      <c r="R71" t="n">
+        <v>6661733</v>
+      </c>
+      <c r="S71" t="n">
+        <v>15</v>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>Skuttunge</t>
+        </is>
+      </c>
+      <c r="Y71" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="AA71" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="AD71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT71" t="inlineStr"/>
+      <c r="AW71" t="inlineStr">
+        <is>
+          <t>Vilhelm Kroon</t>
+        </is>
+      </c>
+      <c r="AX71" t="inlineStr">
+        <is>
+          <t>Vilhelm Kroon</t>
+        </is>
+      </c>
+      <c r="AY71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>131268315</v>
+      </c>
+      <c r="B72" t="n">
+        <v>57881</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr"/>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>Risboskogen, söder om, Upl</t>
+        </is>
+      </c>
+      <c r="Q72" t="n">
+        <v>631848</v>
+      </c>
+      <c r="R72" t="n">
+        <v>6661810</v>
+      </c>
+      <c r="S72" t="n">
+        <v>15</v>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>Skuttunge</t>
+        </is>
+      </c>
+      <c r="Y72" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="AA72" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="AD72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT72" t="inlineStr"/>
+      <c r="AW72" t="inlineStr">
+        <is>
+          <t>Vilhelm Kroon</t>
+        </is>
+      </c>
+      <c r="AX72" t="inlineStr">
+        <is>
+          <t>Vilhelm Kroon</t>
+        </is>
+      </c>
+      <c r="AY72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>131268317</v>
+      </c>
+      <c r="B73" t="n">
+        <v>92268</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>1209</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Rynkskinn</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Hermanssonia centrifuga</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>(P. Karst.) Zmitr.</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>Risboskogen, söder om, Upl</t>
+        </is>
+      </c>
+      <c r="Q73" t="n">
+        <v>632036</v>
+      </c>
+      <c r="R73" t="n">
+        <v>6661722</v>
+      </c>
+      <c r="S73" t="n">
+        <v>15</v>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>Skuttunge</t>
+        </is>
+      </c>
+      <c r="Y73" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="AA73" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="AD73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT73" t="inlineStr"/>
+      <c r="AW73" t="inlineStr">
+        <is>
+          <t>Vilhelm Kroon</t>
+        </is>
+      </c>
+      <c r="AX73" t="inlineStr">
+        <is>
+          <t>Vilhelm Kroon</t>
+        </is>
+      </c>
+      <c r="AY73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>131268314</v>
+      </c>
+      <c r="B74" t="n">
+        <v>97254</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>53</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Vedtrappmossa</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Crossocalyx hellerianus</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>(Nees ex Lindenb.) Meyl.</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>Risboskogen, söder om, Upl</t>
+        </is>
+      </c>
+      <c r="Q74" t="n">
+        <v>632019</v>
+      </c>
+      <c r="R74" t="n">
+        <v>6661463</v>
+      </c>
+      <c r="S74" t="n">
+        <v>15</v>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>Skuttunge</t>
+        </is>
+      </c>
+      <c r="Y74" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="AA74" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="AD74" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE74" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG74" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT74" t="inlineStr"/>
+      <c r="AW74" t="inlineStr">
+        <is>
+          <t>Vilhelm Kroon</t>
+        </is>
+      </c>
+      <c r="AX74" t="inlineStr">
+        <is>
+          <t>Vilhelm Kroon</t>
+        </is>
+      </c>
+      <c r="AY74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>131268321</v>
+      </c>
+      <c r="B75" t="n">
+        <v>57064</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>102612</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Järpe</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Tetrastes bonasia</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>parning/parningsceremonier</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr"/>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>Risboskogen, söder om, Upl</t>
+        </is>
+      </c>
+      <c r="Q75" t="n">
+        <v>632020</v>
+      </c>
+      <c r="R75" t="n">
+        <v>6661596</v>
+      </c>
+      <c r="S75" t="n">
+        <v>15</v>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>Skuttunge</t>
+        </is>
+      </c>
+      <c r="Y75" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="AA75" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="AC75" t="inlineStr">
+        <is>
+          <t>Framlockad med ljuduppspelning enl. vedertagen inventeringsmetodik för att konstatera revir.</t>
+        </is>
+      </c>
+      <c r="AD75" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE75" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG75" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH75" t="inlineStr">
+        <is>
+          <t>Blandsumpskog</t>
+        </is>
+      </c>
+      <c r="AI75" t="inlineStr">
+        <is>
+          <t>Fuktig stråk med björk, klibbal och inväxt gran i naturskogsartad barrblandskog med lövinslag</t>
+        </is>
+      </c>
+      <c r="AT75" t="inlineStr"/>
+      <c r="AW75" t="inlineStr">
+        <is>
+          <t>Vilhelm Kroon</t>
+        </is>
+      </c>
+      <c r="AX75" t="inlineStr">
+        <is>
+          <t>Vilhelm Kroon</t>
+        </is>
+      </c>
+      <c r="AY75" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 41611-2025 artfynd.xlsx
+++ b/artfynd/A 41611-2025 artfynd.xlsx
@@ -7617,7 +7617,7 @@
         <v>131268322</v>
       </c>
       <c r="B70" t="n">
-        <v>83207</v>
+        <v>83208</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         <v>131268317</v>
       </c>
       <c r="B73" t="n">
-        <v>92268</v>
+        <v>92269</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         <v>131268314</v>
       </c>
       <c r="B74" t="n">
-        <v>97254</v>
+        <v>97255</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>

--- a/artfynd/A 41611-2025 artfynd.xlsx
+++ b/artfynd/A 41611-2025 artfynd.xlsx
@@ -7924,7 +7924,7 @@
         <v>131268317</v>
       </c>
       <c r="B73" t="n">
-        <v>92269</v>
+        <v>92272</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         <v>131268314</v>
       </c>
       <c r="B74" t="n">
-        <v>97255</v>
+        <v>97258</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>

--- a/artfynd/A 41611-2025 artfynd.xlsx
+++ b/artfynd/A 41611-2025 artfynd.xlsx
@@ -7617,7 +7617,7 @@
         <v>131268322</v>
       </c>
       <c r="B70" t="n">
-        <v>83208</v>
+        <v>83209</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         <v>131268317</v>
       </c>
       <c r="B73" t="n">
-        <v>92272</v>
+        <v>92273</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         <v>131268314</v>
       </c>
       <c r="B74" t="n">
-        <v>97258</v>
+        <v>97259</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
